--- a/data/trans_dic/P15B_tráfico-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P15B_tráfico-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.1946774766101712</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.09574336028737095</v>
+        <v>0.09574336028737092</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1749806160497819</v>
@@ -697,7 +697,7 @@
         <v>0.1934001517616989</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1343298054728533</v>
+        <v>0.1343298054728534</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1284434893918742</v>
+        <v>0.1338020160801337</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1177848543031518</v>
+        <v>0.1115350626575173</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.09140689899480152</v>
+        <v>0.09561296905578992</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03044567348998409</v>
+        <v>0.03440648680002372</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05281064162320003</v>
+        <v>0.05299228401911459</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03859617120230465</v>
+        <v>0.03770435257253058</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09759595062475281</v>
+        <v>0.1079256465628099</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.09458873739255623</v>
+        <v>0.09439672849357898</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1364659787346862</v>
+        <v>0.1215949002408588</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.09640350540331089</v>
+        <v>0.0950719345120552</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1224535401309907</v>
+        <v>0.1251043564004534</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.078040194222234</v>
+        <v>0.07685508774650238</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5185169381502124</v>
+        <v>0.521575452143731</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3087458459681086</v>
+        <v>0.3197679759785388</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3430727135282405</v>
+        <v>0.3427540953915884</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1993599294230025</v>
+        <v>0.2051969593169967</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4236561337802685</v>
+        <v>0.4256131013290362</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2359439556581187</v>
+        <v>0.2310370677023961</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3303752109480738</v>
+        <v>0.3182547904030149</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2982918522768961</v>
+        <v>0.2988654920114316</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4005278728398505</v>
+        <v>0.3982147225823164</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2472512605342449</v>
+        <v>0.2443898599808902</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2892138061317589</v>
+        <v>0.28252168343203</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2132323850200679</v>
+        <v>0.2065735262862023</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2126105505819461</v>
+        <v>0.2071486722493637</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.146825218170616</v>
+        <v>0.1505121311008433</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.115064356743166</v>
+        <v>0.1084372899909174</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1660934502461238</v>
+        <v>0.160239128007871</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.09966348032543819</v>
+        <v>0.101763010442245</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1077259231202266</v>
+        <v>0.09629735432609306</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07822020384410557</v>
+        <v>0.08259484095121894</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1529249474235209</v>
+        <v>0.1542060991967414</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2046418376595572</v>
+        <v>0.196730675553426</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1480232039919456</v>
+        <v>0.1462649915722077</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1205465621830537</v>
+        <v>0.117206785646334</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1875575161425248</v>
+        <v>0.1866916343923439</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5343443493759609</v>
+        <v>0.5380678936055487</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3589067633003097</v>
+        <v>0.3602510734279189</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3303300153766374</v>
+        <v>0.3289948545257069</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4502985860202187</v>
+        <v>0.4469898363632536</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4122495687783075</v>
+        <v>0.4408030359136704</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2776904490240413</v>
+        <v>0.2647301093298013</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3046459777629337</v>
+        <v>0.3132437370594214</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4471270935091823</v>
+        <v>0.440072025526885</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4338292274087589</v>
+        <v>0.434922040072299</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2973496873977386</v>
+        <v>0.2795198766917442</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2717839825077815</v>
+        <v>0.2759352270125627</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.380940026863991</v>
+        <v>0.3934529492085845</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1703433647057397</v>
+        <v>0.1814258072673736</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1949189277463449</v>
+        <v>0.192705686421661</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08333517313279662</v>
+        <v>0.08745096449656173</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1226902699733154</v>
+        <v>0.1069995548103914</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.07267225948455147</v>
+        <v>0.08154206579748524</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1526438372808157</v>
+        <v>0.1535062751660016</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06487122689431145</v>
+        <v>0.06195830226180236</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04283291339616294</v>
+        <v>0.04344178806171448</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1623935731808939</v>
+        <v>0.1541107464763569</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1962112040226518</v>
+        <v>0.1997189091057293</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1062370061538259</v>
+        <v>0.1022984563242442</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.09158229099129177</v>
+        <v>0.09335856251531835</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5703921128973102</v>
+        <v>0.5721545114728827</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4300637738815393</v>
+        <v>0.4285730293443833</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3505456660510043</v>
+        <v>0.3550987211548102</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4539744709989511</v>
+        <v>0.4488028649228867</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4089321953564491</v>
+        <v>0.4201954410141532</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3739346347159582</v>
+        <v>0.3790734626467425</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3424831402221627</v>
+        <v>0.3264750415597144</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2781139189458066</v>
+        <v>0.2710294418418031</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4378614121108367</v>
+        <v>0.4223709438290595</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3605497449209561</v>
+        <v>0.3635377411755477</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2924182117427116</v>
+        <v>0.2867763452406514</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2862183658346708</v>
+        <v>0.2802271803320018</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.1496744193711015</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2756173271040528</v>
+        <v>0.2756173271040527</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2474357358524805</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1440048805690326</v>
+        <v>0.1508139392270173</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1892221646668484</v>
+        <v>0.1913018255936388</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1567904048593649</v>
+        <v>0.1542353833838097</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2562878574687402</v>
+        <v>0.2666029140987477</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07946222769651362</v>
+        <v>0.07703895838464367</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1280010110691393</v>
+        <v>0.1270119178019147</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.07066781984272066</v>
+        <v>0.06463611598760118</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1932596357164581</v>
+        <v>0.1960552046226088</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1443806843233194</v>
+        <v>0.1482922717858031</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1792777002253957</v>
+        <v>0.1801888848463957</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1362151172642696</v>
+        <v>0.1351523544650126</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.265037029170327</v>
+        <v>0.2575475029915953</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4446492118832002</v>
+        <v>0.4664399357449272</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.385882340723213</v>
+        <v>0.3917128553683544</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3817929144945018</v>
+        <v>0.3874981941601697</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5229441510703098</v>
+        <v>0.5259712321880147</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4265032610935743</v>
+        <v>0.4063661831930254</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3273215155187215</v>
+        <v>0.3318846935898516</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2778828675500379</v>
+        <v>0.265658405756326</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3657542652929311</v>
+        <v>0.3690577912633659</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3994766304268677</v>
+        <v>0.3843032723284207</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.324033288535317</v>
+        <v>0.3240362507222225</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2837823847620402</v>
+        <v>0.2842621910865676</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4154688103158503</v>
+        <v>0.4114817207878053</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2389397888752874</v>
+        <v>0.2430528341255305</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2094405095363446</v>
+        <v>0.2065912829350988</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1641820121832644</v>
+        <v>0.1643357651045166</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2026383402465131</v>
+        <v>0.2077981740745277</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1316904500080397</v>
+        <v>0.133595793279521</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.144664184189985</v>
+        <v>0.137585550048613</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1186644548354692</v>
+        <v>0.1180463624590602</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1706999571345903</v>
+        <v>0.1668654857630554</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2153103892925158</v>
+        <v>0.2093866616748172</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1878209631863896</v>
+        <v>0.1909658620308997</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1560662216198467</v>
+        <v>0.1532792721136718</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2038398637151009</v>
+        <v>0.200474093143238</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4146209890218554</v>
+        <v>0.4179216967580174</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3159262754222935</v>
+        <v>0.3121480792131686</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2816978945282498</v>
+        <v>0.2843156618762898</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3364132668823666</v>
+        <v>0.3514563479281673</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3045724217322173</v>
+        <v>0.3003397287403855</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2435895379763178</v>
+        <v>0.2393188441249156</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.22975898931318</v>
+        <v>0.2279754496763468</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2886570450938562</v>
+        <v>0.2881133671487925</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3407194650105247</v>
+        <v>0.3379099505237056</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2604894028154898</v>
+        <v>0.2679466037707434</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2394675345479297</v>
+        <v>0.2370460040923512</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2891545625034595</v>
+        <v>0.2884977100951789</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2926</v>
+        <v>3048</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6952</v>
+        <v>6583</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3633</v>
+        <v>3800</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1513</v>
+        <v>1710</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2025</v>
+        <v>1979</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4750</v>
+        <v>5253</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4438</v>
+        <v>4429</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>5274</v>
+        <v>4700</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>10749</v>
+        <v>10600</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>10827</v>
+        <v>11061</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>7540</v>
+        <v>7425</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11813</v>
+        <v>11883</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>18223</v>
+        <v>18873</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13635</v>
+        <v>13622</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>9906</v>
+        <v>10196</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>6722</v>
+        <v>6753</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>12381</v>
+        <v>12124</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>16081</v>
+        <v>15491</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>13996</v>
+        <v>14023</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>15480</v>
+        <v>15391</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>27568</v>
+        <v>27249</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>25572</v>
+        <v>24980</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>20601</v>
+        <v>19957</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>9095</v>
+        <v>8862</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>11935</v>
+        <v>12235</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6959</v>
+        <v>6558</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>12241</v>
+        <v>11810</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3003</v>
+        <v>3067</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>8039</v>
+        <v>7186</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3801</v>
+        <v>4014</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>9604</v>
+        <v>9685</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>14921</v>
+        <v>14345</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>23079</v>
+        <v>22805</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>13148</v>
+        <v>12784</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>25603</v>
+        <v>25485</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>22859</v>
+        <v>23019</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>29175</v>
+        <v>29284</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>19977</v>
+        <v>19896</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>33188</v>
+        <v>32944</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>12423</v>
+        <v>13284</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>20722</v>
+        <v>19755</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>14805</v>
+        <v>15223</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>28081</v>
+        <v>27638</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>31633</v>
+        <v>31712</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>46361</v>
+        <v>43581</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>29645</v>
+        <v>30097</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>52001</v>
+        <v>53709</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4055</v>
+        <v>4319</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>11385</v>
+        <v>11256</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3056</v>
+        <v>3206</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>4045</v>
+        <v>3528</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1752</v>
+        <v>1966</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>8708</v>
+        <v>8757</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2047</v>
+        <v>1955</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2119</v>
+        <v>2150</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>7782</v>
+        <v>7385</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>22653</v>
+        <v>23058</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>7248</v>
+        <v>6980</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>7551</v>
+        <v>7698</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13579</v>
+        <v>13621</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>25119</v>
+        <v>25032</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>12853</v>
+        <v>13020</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>14968</v>
+        <v>14798</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>9861</v>
+        <v>10133</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>21331</v>
+        <v>21624</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>10809</v>
+        <v>10304</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>13761</v>
+        <v>13411</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>20982</v>
+        <v>20240</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>41627</v>
+        <v>41972</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>19951</v>
+        <v>19566</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>23599</v>
+        <v>23105</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4854</v>
+        <v>5084</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>16699</v>
+        <v>16883</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>9546</v>
+        <v>9391</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>16286</v>
+        <v>16942</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1882</v>
+        <v>1825</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>9121</v>
+        <v>9051</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4425</v>
+        <v>4047</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>14103</v>
+        <v>14307</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>8287</v>
+        <v>8512</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>28597</v>
+        <v>28743</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>16823</v>
+        <v>16692</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>36183</v>
+        <v>35160</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>14989</v>
+        <v>15724</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>34055</v>
+        <v>34569</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>23246</v>
+        <v>23593</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>33231</v>
+        <v>33423</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>10103</v>
+        <v>9626</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>23325</v>
+        <v>23650</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>17400</v>
+        <v>16635</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>26690</v>
+        <v>26931</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>22930</v>
+        <v>22059</v>
       </c>
       <c r="L19" s="6" t="n">
         <v>51688</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>35048</v>
+        <v>35108</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>56720</v>
+        <v>56175</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>29408</v>
+        <v>29914</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>60104</v>
+        <v>59286</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>32470</v>
+        <v>32501</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>44562</v>
+        <v>45697</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>12353</v>
+        <v>12532</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>36948</v>
+        <v>35140</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>22719</v>
+        <v>22600</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>39633</v>
+        <v>38743</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>46697</v>
+        <v>45412</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>101870</v>
+        <v>103575</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>60745</v>
+        <v>59660</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>92154</v>
+        <v>90633</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>51030</v>
+        <v>51437</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>90662</v>
+        <v>89578</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>55711</v>
+        <v>56229</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>73981</v>
+        <v>77289</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>28571</v>
+        <v>28174</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>62214</v>
+        <v>61123</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>43988</v>
+        <v>43647</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>67020</v>
+        <v>66894</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>73896</v>
+        <v>73287</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>141283</v>
+        <v>145328</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>93206</v>
+        <v>92264</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>130724</v>
+        <v>130427</v>
       </c>
     </row>
     <row r="24">
